--- a/biology/Botanique/Parc_Victoria_(Charlottetown)/Parc_Victoria_(Charlottetown).xlsx
+++ b/biology/Botanique/Parc_Victoria_(Charlottetown)/Parc_Victoria_(Charlottetown).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Victoria est un parc riverain de la ville canadienne de Charlottetown, Île-du-Prince-Édouard[1].
+Le parc Victoria est un parc riverain de la ville canadienne de Charlottetown, Île-du-Prince-Édouard.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La propriété contenant le parc Victoria fut fondé en 1789 par le gouverneur Edmund Fanning comme un terrain de 100 acres (40 hectares) pour l'usage de l'administrateur colonial de l'Île St Jean (renommée Île-du-Prince-Édouard en 1799).  Cette propriété située immédiatement à l'ouest des "500 lots" originaux de Charlottetown était environ huit fois plus grands que les 36 terrains de 12 acres (4.9 hectares) créés dans la partie nord-est de Queens Royalty.  Il était envisagé que la propriété serait utilisée comme champs agricoles pour le gouverneur et un site pour la résidence officielle.
 Avant la guerre anglo-américaine de 1812, la Prince Edward Battery avait une fortification le long la rive de la propriété qui faisait face à la voie maritime du port de Charlottetown. Cette garnison était composée des réguliers de l'armée britannique, ainsi par la milice coloniale jusqu'au milieu du XIXe siècle.
@@ -551,7 +565,9 @@
           <t>Pressions de développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le parc a éprouvé de formidables pressions de développement durant le XXe siècle :
 En 1934, la portion nord de la propriété voisine de Government House (le long de la frontière est du parc) fut cédée pour l'Hôpital de l'Île-du-Prince-Édouard.
